--- a/Assets/StreamingAssets/2_Garden_Canteen_Training.xlsx
+++ b/Assets/StreamingAssets/2_Garden_Canteen_Training.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5FF137-589D-3841-95A1-76D3D140A199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DA1A13-66DF-6A4E-8C1B-65F5A2197137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="88">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,10 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Master, this young lady’s skills seem quite impressive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yao-Astonished</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,14 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Yaochong, you’re being too hasty.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Look at the way she swings the weapon—when it cuts through the air like a feather, it means she’s not applying power correctly.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The force isn’t coming from the waist, but is simply brute strength from the arms.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,10 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I see. Master, you’re amazing—you can spot these details just from a few moves.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yao-Regular</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,10 +185,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>May I ask the young lady’s name?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,22 +197,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I’m Li Chen, the best martial artist in this entire manor.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chen-Smile3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>My apologies, Miss Li—you must be the top disciple of the manor.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>top disciple? That’s only because there are just two guards left in Qingliu Manor now.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chen-Smile2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,10 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(No wonder we’ve walked around so long and seen so few people. The place has been eerily quiet.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Who would have thought such a grand manor would be so sparsely populated?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,18 +217,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enough chatting—who are you anyway?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chen-Regular</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I’m Di Renjie, and this is my page, Yao Chong.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>We came from Luoyang and passed through here on our way to Pengze County.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,10 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I really hope I get the chance to spar with them someday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(She didn’t seem particularly interested in our identities.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -309,18 +261,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hello</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ran-Regular</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hello—may I ask if you’re a physician?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ran</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -333,14 +277,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I practice medicine in the town at the foot of the mountain. I came up a few days ago for a consultation.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Are you familiar with the manor’s master?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -373,10 +309,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Master, it’s getting late—shall we head back and rest?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yao-Pity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -386,6 +318,74 @@
   </si>
   <si>
     <t>Ladder1</t>
+  </si>
+  <si>
+    <t>I’m Chen, the best martial artist in this entire manor.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sir, this young lady’s skills seem quite impressive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yao, you’re being too hasty.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Look at the way she swings the weapon——when it cuts through the air like a feather, it means she’s not applying power correctly.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I see. You’re amazing——you can spot these details just from a few moves.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>May I ask your name please?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My apologies, you must be the top disciple of the manor.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top disciple? That’s only because there are just two guards left in Qingliu Manor now.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(No wonder we’ve walked around so long and seen so few people.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enough chatting——who are you anyway?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I’m Judge Dee, and this is my student, Yao.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I really hope I get the chance to spar with them someday.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello——may I ask if you’re a physician?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I practice medicine in JiuJiang county at the foot of the mountain. I came up a few days ago for a consultation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you familiar with the Lord?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sir, it’s getting late——shall we head back and rest?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -804,7 +804,7 @@
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F42"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -871,7 +871,7 @@
     </row>
     <row r="2" spans="1:16" ht="51">
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -919,10 +919,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="17">
@@ -948,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -971,7 +971,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -994,10 +994,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -1017,10 +1017,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -1040,10 +1040,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -1056,15 +1056,13 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:16" ht="34">
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -1079,12 +1077,12 @@
         <v>500</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="34">
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -1101,7 +1099,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1118,13 +1116,13 @@
     </row>
     <row r="14" spans="1:16" ht="17">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -1138,13 +1136,13 @@
     </row>
     <row r="15" spans="1:16" ht="17">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -1161,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -1178,13 +1176,13 @@
     </row>
     <row r="17" spans="1:12" ht="34">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -1200,7 +1198,7 @@
     </row>
     <row r="18" spans="1:12" ht="34">
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
@@ -1209,10 +1207,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="51">
+    <row r="19" spans="1:12" ht="34">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" t="s">
@@ -1233,10 +1231,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
@@ -1256,13 +1254,13 @@
     </row>
     <row r="21" spans="1:12" ht="17">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -1280,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17">
@@ -1288,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -1311,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -1331,13 +1329,13 @@
     </row>
     <row r="24" spans="1:12" ht="34">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
@@ -1352,15 +1350,15 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="17">
+    <row r="25" spans="1:12" ht="34">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -1377,7 +1375,7 @@
     </row>
     <row r="26" spans="1:12" ht="34">
       <c r="B26" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
@@ -1396,7 +1394,7 @@
     </row>
     <row r="27" spans="1:12" ht="34">
       <c r="B27" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
@@ -1410,7 +1408,7 @@
     </row>
     <row r="28" spans="1:12" ht="34">
       <c r="B28" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
@@ -1426,52 +1424,52 @@
     </row>
     <row r="29" spans="1:12" ht="34">
       <c r="B29" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="34">
       <c r="B30" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="34">
       <c r="B31" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="17">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>22</v>
@@ -1480,7 +1478,7 @@
         <v>500</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="17">
@@ -1488,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -1497,7 +1495,7 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -1505,19 +1503,19 @@
     </row>
     <row r="34" spans="1:12" ht="17">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -1525,19 +1523,19 @@
     </row>
     <row r="35" spans="1:12" ht="34">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -1548,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -1557,7 +1555,7 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -1565,19 +1563,19 @@
     </row>
     <row r="37" spans="1:12" ht="17">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -1588,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -1597,7 +1595,7 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -1605,19 +1603,19 @@
     </row>
     <row r="39" spans="1:12" ht="17">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -1625,17 +1623,15 @@
     </row>
     <row r="40" spans="1:12" ht="34">
       <c r="B40" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>87</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
@@ -1644,16 +1640,16 @@
         <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>22</v>
@@ -1662,7 +1658,7 @@
         <v>500</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="17">
@@ -1670,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
         <v>16</v>
@@ -1679,7 +1675,7 @@
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>17</v>
@@ -1689,10 +1685,10 @@
     </row>
     <row r="43" spans="1:12" ht="17">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/2_Garden_Canteen_Training.xlsx
+++ b/Assets/StreamingAssets/2_Garden_Canteen_Training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DA1A13-66DF-6A4E-8C1B-65F5A2197137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DA0DB7-68C0-0243-8605-99A5B2C9C46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -225,10 +225,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Luoyang, huh? Since it’s the capital, there must be many martial arts masters there.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chen-Thinking</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -386,6 +382,9 @@
   <si>
     <t>Sir, it’s getting late——shall we head back and rest?</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luoyang, huh? Since it’s the capital, there must be many martial arts Lords there.</t>
   </si>
 </sst>
 </file>
@@ -871,7 +870,7 @@
     </row>
     <row r="2" spans="1:16" ht="51">
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -919,7 +918,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -948,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -971,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1040,7 +1039,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
@@ -1099,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1116,7 +1115,7 @@
     </row>
     <row r="14" spans="1:16" ht="17">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>38</v>
@@ -1139,7 +1138,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -1159,7 +1158,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -1179,7 +1178,7 @@
         <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
         <v>41</v>
@@ -1210,7 +1209,7 @@
     <row r="19" spans="1:12" ht="34">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" t="s">
@@ -1257,7 +1256,7 @@
         <v>37</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
         <v>41</v>
@@ -1286,7 +1285,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -1332,10 +1331,10 @@
         <v>37</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" t="s">
         <v>47</v>
-      </c>
-      <c r="C24" t="s">
-        <v>48</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
@@ -1355,7 +1354,7 @@
         <v>37</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
         <v>41</v>
@@ -1375,7 +1374,7 @@
     </row>
     <row r="26" spans="1:12" ht="34">
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
@@ -1394,7 +1393,7 @@
     </row>
     <row r="27" spans="1:12" ht="34">
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
@@ -1408,7 +1407,7 @@
     </row>
     <row r="28" spans="1:12" ht="34">
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
@@ -1424,52 +1423,52 @@
     </row>
     <row r="29" spans="1:12" ht="34">
       <c r="B29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
         <v>52</v>
-      </c>
-      <c r="D29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="34">
       <c r="B30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="34">
       <c r="B31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="17">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>22</v>
@@ -1478,7 +1477,7 @@
         <v>500</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="17">
@@ -1486,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -1495,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -1503,19 +1502,19 @@
     </row>
     <row r="34" spans="1:12" ht="17">
       <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" t="s">
         <v>58</v>
       </c>
-      <c r="C34" t="s">
-        <v>59</v>
-      </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -1523,19 +1522,19 @@
     </row>
     <row r="35" spans="1:12" ht="34">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -1546,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -1555,7 +1554,7 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -1563,19 +1562,19 @@
     </row>
     <row r="37" spans="1:12" ht="17">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -1586,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -1595,7 +1594,7 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -1603,19 +1602,19 @@
     </row>
     <row r="39" spans="1:12" ht="17">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -1623,13 +1622,13 @@
     </row>
     <row r="40" spans="1:12" ht="34">
       <c r="B40" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -1640,16 +1639,16 @@
         <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>22</v>
@@ -1666,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
         <v>16</v>
@@ -1675,7 +1674,7 @@
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>17</v>
@@ -1685,10 +1684,10 @@
     </row>
     <row r="43" spans="1:12" ht="17">
       <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
